--- a/olympus/M211.xlsx
+++ b/olympus/M211.xlsx
@@ -245,200 +245,200 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2022-05-01 23:00:00</t>
+          <t>2022-05-01 22:00:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.07345832139253616</v>
+        <v>0.47935089468955994</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.18257290124893188</v>
+        <v>0.1822679489850998</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.1976832151412964</v>
+        <v>0.9571347832679749</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.1972012519836426</v>
+        <v>0.9266926646232605</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.9733002185821533</v>
+        <v>0.9435000419616699</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.60779571533203</v>
+        <v>40.68193054199219</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-74.0460205078125</v>
+        <v>-74.01608276367188</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1017.2139892578125</v>
+        <v>1017.5399169921875</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>1.8000000715255737</v>
+        <v>0.0</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.899999976158142</v>
+        <v>0.0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1.8000000715255737</v>
+        <v>0.0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>12.540016174316406</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>16.800025939941406</v>
+        <v>19.491863250732422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 01:00:00</t>
+          <t>2022-05-01 23:00:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.2515595555305481</v>
+        <v>0.07345832139253616</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.18318282067775726</v>
+        <v>0.18257290124893188</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.484906554222107</v>
+        <v>1.1976832151412964</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.5791815519332886</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.4901890754699707</v>
+        <v>1.1972012519836426</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0</v>
+        <v>2.9733002185821533</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.40627670288086</v>
+        <v>40.60779571533203</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-73.53003692626953</v>
+        <v>-74.0460205078125</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1017.2902221679688</v>
+        <v>1017.2139892578125</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.0</v>
+        <v>1.8000000715255737</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.200000286102295</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4.200000286102295</v>
+        <v>1.8000000715255737</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.099999904632568</v>
+        <v>2.0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>17.09979820251465</v>
+        <v>12.540016174316406</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>14.600000381469727</v>
+        <v>16.800025939941406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 03:00:00</t>
+          <t>2022-05-02 00:00:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.3710145950317383</v>
+        <v>0.19830474257469177</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.18379274010658264</v>
+        <v>0.18287786841392517</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.216433048248291</v>
+        <v>0.6664180755615234</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.2858543395996094</v>
+        <v>0.0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.2851779460906982</v>
+        <v>0.6904601454734802</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.0</v>
+        <v>2.2083001136779785</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.37358093261719</v>
+        <v>40.44974899291992</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-72.67036437988281</v>
+        <v>-73.84347534179688</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1018.633056640625</v>
+        <v>1016.8880615234375</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>20.703001022338867</v>
+        <v>6.682760238647461</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>14.102594375610352</v>
+        <v>15.69930648803711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 05:00:00</t>
+          <t>2022-05-02 01:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.27891823649406433</v>
+        <v>0.2515595555305481</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.18440264463424683</v>
+        <v>0.18318282067775726</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.2485949993133545</v>
+        <v>1.484906554222107</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.1735715866088867</v>
+        <v>1.5791815519332886</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.294471502304077</v>
+        <v>1.4901890754699707</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.0</v>
@@ -447,56 +447,56 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.41501998901367</v>
+        <v>40.40627670288086</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-71.7199935913086</v>
+        <v>-73.53003692626953</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1019.3626708984375</v>
+        <v>1017.2902221679688</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>4.0</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>4.200000286102295</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7.599999904632568</v>
+        <v>4.200000286102295</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>21.40020179748535</v>
+        <v>17.09979820251465</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>13.908730506896973</v>
+        <v>14.600000381469727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 07:00:00</t>
+          <t>2022-05-02 02:00:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.2789817452430725</v>
+        <v>0.23765647411346436</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.1850125640630722</v>
+        <v>0.18348777294158936</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.248579263687134</v>
+        <v>1.5758273601531982</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.165611982345581</v>
+        <v>1.6541951894760132</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.296403408050537</v>
+        <v>1.5723001956939697</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0.0</v>
@@ -505,56 +505,56 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.42364501953125</v>
+        <v>40.365234375</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-70.77406311035156</v>
+        <v>-73.13336944580078</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1019.64404296875</v>
+        <v>1017.9616088867188</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.0</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.700000286102295</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>20.899547576904297</v>
+        <v>17.90060043334961</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>13.040400505065918</v>
+        <v>14.52385139465332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 09:00:00</t>
+          <t>2022-05-02 03:00:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.17625302076339722</v>
+        <v>0.3710145950317383</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1856224685907364</v>
+        <v>0.18379274010658264</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.3213443756103516</v>
+        <v>2.216433048248291</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.1988348960876465</v>
+        <v>2.2858543395996094</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.393176555633545</v>
+        <v>2.2851779460906982</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.0</v>
@@ -563,56 +563,56 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.44830322265625</v>
+        <v>40.37358093261719</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-69.85338592529297</v>
+        <v>-72.67036437988281</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1020.19482421875</v>
+        <v>1018.633056640625</v>
       </c>
       <c r="M8" s="2" t="n">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>8.100000381469727</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>8.199999809265137</v>
-      </c>
       <c r="O8" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.0</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>20.76658821105957</v>
+        <v>20.703001022338867</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>12.273994445800781</v>
+        <v>14.102594375610352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 11:00:00</t>
+          <t>2022-05-02 04:00:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.20410016179084778</v>
+        <v>0.1755104660987854</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.18623238801956177</v>
+        <v>0.18409769237041473</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.4584128856658936</v>
+        <v>2.2591028213500977</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.3254661560058594</v>
+        <v>2.1760292053222656</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.542809009552002</v>
+        <v>2.3005783557891846</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0.0</v>
@@ -621,56 +621,56 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.463260650634766</v>
+        <v>40.38525390625</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-68.9477767944336</v>
+        <v>-72.19135284423828</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1021.080810546875</v>
+        <v>1019.2219848632812</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>8.5</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.5</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>22.299999237060547</v>
+        <v>22.39983367919922</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>12.199999809265137</v>
+        <v>13.491009712219238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 13:00:00</t>
+          <t>2022-05-02 05:00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.20624834299087524</v>
+        <v>0.27891823649406433</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.18684230744838715</v>
+        <v>0.18440264463424683</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.300601005554199</v>
+        <v>2.2485949993133545</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.0796186923980713</v>
+        <v>2.1735715866088867</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.377784252166748</v>
+        <v>2.294471502304077</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.0</v>
@@ -679,56 +679,56 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40.5733757019043</v>
+        <v>40.41501998901367</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-68.13294982910156</v>
+        <v>-71.7199935913086</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1021.9668579101562</v>
+        <v>1019.3626708984375</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.0</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>19.200000762939453</v>
+        <v>21.40020179748535</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>12.636482238769531</v>
+        <v>13.908730506896973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 15:00:00</t>
+          <t>2022-05-02 06:00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.17861473560333252</v>
+        <v>0.281277060508728</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.18745221197605133</v>
+        <v>0.1847076117992401</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.41792368888855</v>
+        <v>2.25551438331604</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.1735637187957764</v>
+        <v>2.1633260250091553</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.5135726928710938</v>
+        <v>2.2950987815856934</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0.0</v>
@@ -737,56 +737,56 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>40.73884582519531</v>
+        <v>40.42078399658203</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-67.26588439941406</v>
+        <v>-71.24647521972656</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1022.7811889648438</v>
+        <v>1019.5033569335938</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>22.83340072631836</v>
+        <v>22.499500274658203</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>13.468839645385742</v>
+        <v>13.429760932922363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 17:00:00</t>
+          <t>2022-05-02 07:00:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.1786823570728302</v>
+        <v>0.2789817452430725</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.1880621314048767</v>
+        <v>0.1850125640630722</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.4418888092041016</v>
+        <v>2.248579263687134</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.1770923137664795</v>
+        <v>2.165611982345581</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.4829320907592773</v>
+        <v>2.296403408050537</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.0</v>
@@ -795,56 +795,56 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>40.9031867980957</v>
+        <v>40.42364501953125</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-66.36115264892578</v>
+        <v>-70.77406311035156</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1022.46484375</v>
+        <v>1019.64404296875</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>8.0</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.0</v>
+        <v>7.700000286102295</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.200000762939453</v>
+        <v>20.899547576904297</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>14.451228141784668</v>
+        <v>13.040400505065918</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 19:00:00</t>
+          <t>2022-05-02 08:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.2762755751609802</v>
+        <v>0.2667680084705353</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.1886720508337021</v>
+        <v>0.1853175163269043</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.3765811920166016</v>
+        <v>2.2730348110198975</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.1326026916503906</v>
+        <v>2.1822493076324463</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.4427175521850586</v>
+        <v>2.3630220890045166</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0.0</v>
@@ -853,16 +853,16 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>41.062255859375</v>
+        <v>40.43455123901367</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-65.44212341308594</v>
+        <v>-70.30859375</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1022.1484985351562</v>
+        <v>1019.7847290039062</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>8.199999809265137</v>
@@ -874,35 +874,35 @@
         <v>8.0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>21.299898147583008</v>
+        <v>22.35004997253418</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>15.013683319091797</v>
+        <v>12.561182975769043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 21:00:00</t>
+          <t>2022-05-02 09:00:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.25619620084762573</v>
+        <v>0.17625302076339722</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.18928195536136627</v>
+        <v>0.1856224685907364</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.402500867843628</v>
+        <v>2.3213443756103516</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.139143228530884</v>
+        <v>2.1988348960876465</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.4593842029571533</v>
+        <v>2.393176555633545</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0.0</v>
@@ -911,13 +911,13 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>41.216697692871094</v>
+        <v>40.44830322265625</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-64.50342559814453</v>
+        <v>-69.85338592529297</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1021.8320922851562</v>
+        <v>1020.19482421875</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>8.100000381469727</v>
@@ -932,35 +932,35 @@
         <v>8.0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>21.699398040771484</v>
+        <v>20.76658821105957</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>13.544151306152344</v>
+        <v>12.273994445800781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2022-05-02 23:00:00</t>
+          <t>2022-05-02 10:00:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.2567318081855774</v>
+        <v>0.1992204189300537</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.18989187479019165</v>
+        <v>0.18592743575572968</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.427368640899658</v>
+        <v>2.3325676918029785</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.187469720840454</v>
+        <v>2.210679054260254</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.482048273086548</v>
+        <v>2.4137027263641357</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0.0</v>
@@ -969,16 +969,16 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>41.360782623291016</v>
+        <v>40.456607818603516</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-63.57597732543945</v>
+        <v>-69.40225219726562</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1021.5157470703125</v>
+        <v>1020.6378173828125</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.300000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>8.300000190734863</v>
@@ -987,38 +987,38 @@
         <v>8.0</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>20.86651039123535</v>
+        <v>22.0</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>10.60683536529541</v>
+        <v>12.199999809265137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 01:00:00</t>
+          <t>2022-05-02 11:00:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.36057618260383606</v>
+        <v>0.20410016179084778</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.19050179421901703</v>
+        <v>0.18623238801956177</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.357856273651123</v>
+        <v>2.4584128856658936</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.1244711875915527</v>
+        <v>2.3254661560058594</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.444704532623291</v>
+        <v>2.542809009552002</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0.0</v>
@@ -1027,56 +1027,56 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>41.497535705566406</v>
+        <v>40.463260650634766</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-62.64250564575195</v>
+        <v>-68.9477767944336</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1021.1994018554688</v>
+        <v>1021.080810546875</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>21.40020179748535</v>
+        <v>22.299999237060547</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>11.288113594055176</v>
+        <v>12.199999809265137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 03:00:00</t>
+          <t>2022-05-02 12:00:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.29532167315483093</v>
+        <v>0.19843362271785736</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.1911116987466812</v>
+        <v>0.18653734028339386</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.3442821502685547</v>
+        <v>2.3574342727661133</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.1065618991851807</v>
+        <v>2.1013896465301514</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.4109978675842285</v>
+        <v>2.4482815265655518</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0.0</v>
@@ -1085,56 +1085,56 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>41.63008499145508</v>
+        <v>40.50014877319336</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-61.68104553222656</v>
+        <v>-68.5097885131836</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1020.883056640625</v>
+        <v>1021.5238037109375</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>21.50040054321289</v>
+        <v>20.89969825744629</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>10.945974349975586</v>
+        <v>12.199999809265137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 05:00:00</t>
+          <t>2022-05-02 13:00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.3434261083602905</v>
+        <v>0.20624834299087524</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.1917216181755066</v>
+        <v>0.18684230744838715</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.318908929824829</v>
+        <v>2.300601005554199</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.1163108348846436</v>
+        <v>2.0796186923980713</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.3920176029205322</v>
+        <v>2.377784252166748</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0.0</v>
@@ -1143,56 +1143,56 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>41.75590896606445</v>
+        <v>40.5733757019043</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-60.70520782470703</v>
+        <v>-68.13294982910156</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1020.5667114257812</v>
+        <v>1021.9668579101562</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>5.0</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.900000095367432</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>21.650087356567383</v>
+        <v>19.200000762939453</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>10.800000190734863</v>
+        <v>12.636482238769531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 07:00:00</t>
+          <t>2022-05-02 14:00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.21581435203552246</v>
+        <v>0.23665277659893036</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.19233152270317078</v>
+        <v>0.18714725971221924</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.319232225418091</v>
+        <v>2.45133900642395</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.1050472259521484</v>
+        <v>2.1876049041748047</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.38088059425354</v>
+        <v>2.5552780628204346</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0.0</v>
@@ -1201,56 +1201,56 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>41.8709716796875</v>
+        <v>40.653018951416016</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-59.74742126464844</v>
+        <v>-67.72056579589844</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1020.3196411132812</v>
+        <v>1022.4098510742188</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.800000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>21.866565704345703</v>
+        <v>22.25713539123535</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 09:00:00</t>
+          <t>2022-05-02 15:00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.2537970542907715</v>
+        <v>0.17861473560333252</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.19294144213199615</v>
+        <v>0.18745221197605133</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.3586812019348145</v>
+        <v>2.41792368888855</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.110772132873535</v>
+        <v>2.1735637187957764</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.4322521686553955</v>
+        <v>2.5135726928710938</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0.0</v>
@@ -1259,13 +1259,13 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>41.98374938964844</v>
+        <v>40.73884582519531</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-58.72990036010742</v>
+        <v>-67.26588439941406</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1020.1497802734375</v>
+        <v>1022.7811889648438</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>8.300000190734863</v>
@@ -1274,41 +1274,41 @@
         <v>8.40000057220459</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>8.0</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.0</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>20.700502395629883</v>
+        <v>22.83340072631836</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.425514221191406</v>
+        <v>13.468839645385742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 11:00:00</t>
+          <t>2022-05-02 16:00:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.3176453709602356</v>
+        <v>0.201803058385849</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.19355136156082153</v>
+        <v>0.18775717914104462</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.4086153507232666</v>
+        <v>2.425246238708496</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.160515069961548</v>
+        <v>2.1638941764831543</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.498621702194214</v>
+        <v>2.50661039352417</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.0</v>
@@ -1317,56 +1317,56 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>42.083675384521484</v>
+        <v>40.83114242553711</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-57.74952697753906</v>
+        <v>-66.8139419555664</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1019.9799194335938</v>
+        <v>1022.623046875</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O21" s="2" t="n">
         <v>8.0</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.199999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>21.700000762939453</v>
+        <v>22.60474967956543</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>14.385525703430176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 13:00:00</t>
+          <t>2022-05-02 17:00:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.25777313113212585</v>
+        <v>0.1786823570728302</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.19416126608848572</v>
+        <v>0.1880621314048767</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.396648645401001</v>
+        <v>2.4418888092041016</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.1704587936401367</v>
+        <v>2.1770923137664795</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.621535301208496</v>
+        <v>2.4829320907592773</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0.0</v>
@@ -1375,56 +1375,56 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>42.17341995239258</v>
+        <v>40.9031867980957</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-56.78670120239258</v>
+        <v>-66.36115264892578</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1019.81005859375</v>
+        <v>1022.46484375</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.5</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>21.30046844482422</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.30788803100586</v>
+        <v>14.451228141784668</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 15:00:00</t>
+          <t>2022-05-02 18:00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.2703021168708801</v>
+        <v>0.1970653086900711</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.1947711855173111</v>
+        <v>0.1883670836687088</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.3807873725891113</v>
+        <v>2.4045071601867676</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.0278053283691406</v>
+        <v>2.1486597061157227</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.4918134212493896</v>
+        <v>2.4484152793884277</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0.0</v>
@@ -1433,56 +1433,56 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>42.25666427612305</v>
+        <v>40.98285675048828</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-55.80200958251953</v>
+        <v>-65.90614318847656</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1019.2125854492188</v>
+        <v>1022.306640625</v>
       </c>
       <c r="M23" s="2" t="n">
+        <v>8.100000381469727</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="O23" s="2" t="n">
         <v>8.0</v>
       </c>
-      <c r="N23" s="2" t="n">
-        <v>8.100000381469727</v>
-      </c>
-      <c r="O23" s="2" t="n">
+      <c r="P23" s="2" t="n">
         <v>7.900000095367432</v>
       </c>
-      <c r="P23" s="2" t="n">
-        <v>8.0</v>
-      </c>
       <c r="Q23" s="2" t="n">
-        <v>21.55022621154785</v>
+        <v>21.899749755859375</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.33627986907959</v>
+        <v>14.80174732208252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 17:00:00</t>
+          <t>2022-05-02 19:00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.2882329225540161</v>
+        <v>0.2762755751609802</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.19538110494613647</v>
+        <v>0.1886720508337021</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.532768487930298</v>
+        <v>2.3765811920166016</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.6579480171203613</v>
+        <v>2.1326026916503906</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.3698174953460693</v>
+        <v>2.4427175521850586</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0.0</v>
@@ -1491,56 +1491,56 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>42.33192443847656</v>
+        <v>41.062255859375</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-54.80677795410156</v>
+        <v>-65.44212341308594</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1018.5883178710938</v>
+        <v>1022.1484985351562</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>22.233400344848633</v>
+        <v>21.299898147583008</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>12.275490760803223</v>
+        <v>15.013683319091797</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 19:00:00</t>
+          <t>2022-05-02 20:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.28612223267555237</v>
+        <v>0.1858711987733841</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.19599100947380066</v>
+        <v>0.18897700309753418</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.61993670463562</v>
+        <v>2.378244161605835</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.7552332878112793</v>
+        <v>2.125958204269409</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.3987655639648438</v>
+        <v>2.436500072479248</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0.0</v>
@@ -1549,56 +1549,56 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>42.40006637573242</v>
+        <v>41.14078140258789</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-53.788108825683594</v>
+        <v>-64.97118377685547</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1018.009033203125</v>
+        <v>1021.9902954101562</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9.5</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>23.298194885253906</v>
+        <v>21.60059928894043</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>13.531707763671875</v>
+        <v>13.987146377563477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 21:00:00</t>
+          <t>2022-05-02 21:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.29106536507606506</v>
+        <v>0.25619620084762573</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.19660092890262604</v>
+        <v>0.18928195536136627</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.6181833744049072</v>
+        <v>2.402500867843628</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.7406883239746094</v>
+        <v>2.139143228530884</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.40169358253479</v>
+        <v>2.4593842029571533</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0.0</v>
@@ -1607,56 +1607,56 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>42.458560943603516</v>
+        <v>41.216697692871094</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-52.770263671875</v>
+        <v>-64.50342559814453</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1018.1661987304688</v>
+        <v>1021.8320922851562</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>9.5</v>
+        <v>8.0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>22.200000762939453</v>
+        <v>21.699398040771484</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>13.153600692749023</v>
+        <v>13.544151306152344</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2022-05-03 23:00:00</t>
+          <t>2022-05-02 22:00:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.23096971213817596</v>
+        <v>0.22690176963806152</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.19721083343029022</v>
+        <v>0.18958692252635956</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.552090644836426</v>
+        <v>2.405118703842163</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.6826894283294678</v>
+        <v>2.172347068786621</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.594508647918701</v>
+        <v>2.4934725761413574</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0.0</v>
@@ -1665,56 +1665,56 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>42.50792694091797</v>
+        <v>41.28909683227539</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-51.75768280029297</v>
+        <v>-64.04273223876953</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1018.3233642578125</v>
+        <v>1021.6739501953125</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.5</v>
+        <v>8.0</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>22.366445541381836</v>
+        <v>22.025114059448242</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>12.006000518798828</v>
+        <v>11.952642440795898</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 01:00:00</t>
+          <t>2022-05-02 23:00:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.30776625871658325</v>
+        <v>0.2567318081855774</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.1978207528591156</v>
+        <v>0.18989187479019165</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2.5279927253723145</v>
+        <v>2.427368640899658</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.6192235946655273</v>
+        <v>2.187469720840454</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.5665407180786133</v>
+        <v>2.482048273086548</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0.0</v>
@@ -1723,56 +1723,56 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>42.48951721191406</v>
+        <v>41.360782623291016</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-50.74488067626953</v>
+        <v>-63.57597732543945</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1018.4805297851562</v>
+        <v>1021.5157470703125</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>9.5</v>
+        <v>8.0</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>23.09986686706543</v>
+        <v>20.86651039123535</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>8.446647644042969</v>
+        <v>10.60683536529541</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 03:00:00</t>
+          <t>2022-05-03 00:00:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.2582629323005676</v>
+        <v>0.263995498418808</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.19843067228794098</v>
+        <v>0.19019682705402374</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.460742712020874</v>
+        <v>2.3658576011657715</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.598764181137085</v>
+        <v>2.136854410171509</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.5595502853393555</v>
+        <v>2.4363956451416016</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0.0</v>
@@ -1781,56 +1781,56 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>42.25577926635742</v>
+        <v>41.430362701416016</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-49.775814056396484</v>
+        <v>-63.107887268066406</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1018.4125366210938</v>
+        <v>1021.3576049804688</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>8.700600624084473</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.5</v>
+        <v>8.0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>22.199600219726562</v>
+        <v>21.89933204650879</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>6.484447956085205</v>
+        <v>11.30430793762207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 05:00:00</t>
+          <t>2022-05-03 01:00:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.44310250878334045</v>
+        <v>0.36057618260383606</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.19904057681560516</v>
+        <v>0.19050179421901703</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.47928786277771</v>
+        <v>2.357856273651123</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.6101067066192627</v>
+        <v>2.1244711875915527</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.5666821002960205</v>
+        <v>2.444704532623291</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0.0</v>
@@ -1839,56 +1839,56 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>42.344783782958984</v>
+        <v>41.497535705566406</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-48.760440826416016</v>
+        <v>-62.64250564575195</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1017.6314086914062</v>
+        <v>1021.1994018554688</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>22.999866485595703</v>
+        <v>21.40020179748535</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>6.634466648101807</v>
+        <v>11.288113594055176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 07:00:00</t>
+          <t>2022-05-03 02:00:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.2839619815349579</v>
+        <v>0.3320043385028839</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.19965049624443054</v>
+        <v>0.19080674648284912</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.4788284301757812</v>
+        <v>2.3572161197662354</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.6151950359344482</v>
+        <v>2.114123821258545</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.558011293411255</v>
+        <v>2.4297285079956055</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0.0</v>
@@ -1897,56 +1897,56 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>42.666934967041016</v>
+        <v>41.56388473510742</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-47.82047653198242</v>
+        <v>-62.16896057128906</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1016.850341796875</v>
+        <v>1021.0411987304688</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>23.466598510742188</v>
+        <v>21.699800491333008</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>7.389551162719727</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 09:00:00</t>
+          <t>2022-05-03 03:00:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.27114787697792053</v>
+        <v>0.29532167315483093</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.20026041567325592</v>
+        <v>0.1911116987466812</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.5057215690612793</v>
+        <v>2.3442821502685547</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.6470062732696533</v>
+        <v>2.1065618991851807</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.5855319499969482</v>
+        <v>2.4109978675842285</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.0</v>
@@ -1955,56 +1955,56 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>43.02732849121094</v>
+        <v>41.63008499145508</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-46.89806365966797</v>
+        <v>-61.68104553222656</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1016.0692749023438</v>
+        <v>1020.883056640625</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.5</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>23.432931900024414</v>
+        <v>21.50040054321289</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>8.192798614501953</v>
+        <v>10.945974349975586</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 11:00:00</t>
+          <t>2022-05-03 04:00:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.39280831813812256</v>
+        <v>0.41522783041000366</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.2008703202009201</v>
+        <v>0.1914166510105133</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.5554287433624268</v>
+        <v>2.3404951095581055</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.7123005390167236</v>
+        <v>2.128828287124634</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.6689419746398926</v>
+        <v>2.408900022506714</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0.0</v>
@@ -2013,56 +2013,56 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>43.37285232543945</v>
+        <v>41.69471740722656</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-45.98477554321289</v>
+        <v>-61.18831253051758</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1015.2881469726562</v>
+        <v>1020.724853515625</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>24.09819984436035</v>
+        <v>21.333232879638672</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>11.486124992370605</v>
+        <v>11.318618774414062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 13:00:00</t>
+          <t>2022-05-03 05:00:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.3744235038757324</v>
+        <v>0.3434261083602905</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.20148023962974548</v>
+        <v>0.1917216181755066</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2.576929807662964</v>
+        <v>2.318908929824829</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.7815492153167725</v>
+        <v>2.1163108348846436</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.7424917221069336</v>
+        <v>2.3920176029205322</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0.0</v>
@@ -2071,56 +2071,56 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>43.72050094604492</v>
+        <v>41.75590896606445</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-45.03491973876953</v>
+        <v>-60.70520782470703</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1014.507080078125</v>
+        <v>1020.5667114257812</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>22.399198532104492</v>
+        <v>21.650087356567383</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>10.760967254638672</v>
+        <v>10.800000190734863</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 15:00:00</t>
+          <t>2022-05-03 06:00:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.27469560503959656</v>
+        <v>0.27039340138435364</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.20209015905857086</v>
+        <v>0.19202657043933868</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.5685086250305176</v>
+        <v>2.321133852005005</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.7704665660858154</v>
+        <v>2.1091926097869873</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.7370922565460205</v>
+        <v>2.377265691757202</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0.0</v>
@@ -2129,56 +2129,56 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>44.05655288696289</v>
+        <v>41.81434631347656</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-44.084495544433594</v>
+        <v>-60.2269287109375</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1013.7260131835938</v>
+        <v>1020.4085083007812</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>8.0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>22.998796463012695</v>
+        <v>21.16654396057129</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>11.54432487487793</v>
+        <v>10.600000381469727</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 17:00:00</t>
+          <t>2022-05-03 07:00:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.2830199897289276</v>
+        <v>0.21581435203552246</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.20270006358623505</v>
+        <v>0.19233152270317078</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2.502638101577759</v>
+        <v>2.319232225418091</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.6994516849517822</v>
+        <v>2.1050472259521484</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.679429769515991</v>
+        <v>2.38088059425354</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0.0</v>
@@ -2187,56 +2187,56 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>44.38134002685547</v>
+        <v>41.8709716796875</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-43.133365631103516</v>
+        <v>-59.74742126464844</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1012.9448852539062</v>
+        <v>1020.3196411132812</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>22.799999237060547</v>
+        <v>21.866565704345703</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>13.761133193969727</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 19:00:00</t>
+          <t>2022-05-03 08:00:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.2916926145553589</v>
+        <v>0.27366623282432556</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.20330998301506042</v>
+        <v>0.19263648986816406</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.5270352363586426</v>
+        <v>2.330549955368042</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.7252323627471924</v>
+        <v>2.113176107406616</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.676776647567749</v>
+        <v>2.3932080268859863</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0.0</v>
@@ -2245,56 +2245,56 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>44.69437789916992</v>
+        <v>41.92829513549805</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-42.182395935058594</v>
+        <v>-59.24010467529297</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1012.163818359375</v>
+        <v>1020.2347412109375</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>22.200000762939453</v>
+        <v>21.285707473754883</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>15.76998233795166</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 21:00:00</t>
+          <t>2022-05-03 09:00:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.254498153924942</v>
+        <v>0.2537970542907715</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.2039198875427246</v>
+        <v>0.19294144213199615</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.5248863697052</v>
+        <v>2.3586812019348145</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.739816427230835</v>
+        <v>2.110772132873535</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.6985087394714355</v>
+        <v>2.4322521686553955</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0.0</v>
@@ -2303,56 +2303,56 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>44.994205474853516</v>
+        <v>41.98374938964844</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-41.23856735229492</v>
+        <v>-58.72990036010742</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1012.1597900390625</v>
+        <v>1020.1497802734375</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>22.80037498474121</v>
+        <v>20.700502395629883</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>14.766003608703613</v>
+        <v>9.425514221191406</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2022-05-04 23:00:00</t>
+          <t>2022-05-03 10:00:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.37400931119918823</v>
+        <v>0.2913912832736969</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.20452980697155</v>
+        <v>0.19324639439582825</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2.5130887031555176</v>
+        <v>2.3420658111572266</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.719372034072876</v>
+        <v>2.094309091567993</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.679243564605713</v>
+        <v>2.4150900840759277</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0.0</v>
@@ -2361,56 +2361,56 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>45.29658126831055</v>
+        <v>42.034934997558594</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-40.25096130371094</v>
+        <v>-58.23902893066406</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1012.3619384765625</v>
+        <v>1020.0648803710938</v>
       </c>
       <c r="M39" s="2" t="n">
+        <v>8.29959774017334</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>8.299397468566895</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>7.899700164794922</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>7.899700164794922</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>21.899999618530273</v>
+      </c>
+      <c r="R39" s="2" t="n">
         <v>9.600000381469727</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>9.600000381469727</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="P39" s="2" t="n">
-        <v>9.199999809265137</v>
-      </c>
-      <c r="Q39" s="2" t="n">
-        <v>22.100601196289062</v>
-      </c>
-      <c r="R39" s="2" t="n">
-        <v>13.600000381469727</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 01:00:00</t>
+          <t>2022-05-03 11:00:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.26986610889434814</v>
+        <v>0.3176453709602356</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.20513972640037537</v>
+        <v>0.19355136156082153</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.4563329219818115</v>
+        <v>2.4086153507232666</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.700307607650757</v>
+        <v>2.160515069961548</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.654604911804199</v>
+        <v>2.498621702194214</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0.0</v>
@@ -2419,56 +2419,56 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>45.58806228637695</v>
+        <v>42.083675384521484</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-39.25931930541992</v>
+        <v>-57.74952697753906</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1012.5641479492188</v>
+        <v>1019.9799194335938</v>
       </c>
       <c r="M40" s="2" t="n">
+        <v>8.40000057220459</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>8.40000057220459</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>21.700000762939453</v>
+      </c>
+      <c r="R40" s="2" t="n">
         <v>9.600000381469727</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>9.600000381469727</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="P40" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>23.199932098388672</v>
-      </c>
-      <c r="R40" s="2" t="n">
-        <v>15.899999618530273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 03:00:00</t>
+          <t>2022-05-03 12:00:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.17560908198356628</v>
+        <v>0.2248949557542801</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.20574963092803955</v>
+        <v>0.19385631382465363</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2.4407896995544434</v>
+        <v>2.534325122833252</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.686856746673584</v>
+        <v>2.2824389934539795</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.650132894515991</v>
+        <v>2.6209771633148193</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0.0</v>
@@ -2477,56 +2477,56 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>45.865787506103516</v>
+        <v>42.12998962402344</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-38.275882720947266</v>
+        <v>-57.26463317871094</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1012.8377685546875</v>
+        <v>1019.89501953125</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>23.33355712890625</v>
+        <v>21.699800491333008</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>16.04886817932129</v>
+        <v>10.248799324035645</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 05:00:00</t>
+          <t>2022-05-03 13:00:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.26635757088661194</v>
+        <v>0.25777313113212585</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.20635955035686493</v>
+        <v>0.19416126608848572</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.4316508769989014</v>
+        <v>2.396648645401001</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.67383074760437</v>
+        <v>2.1704587936401367</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.638711452484131</v>
+        <v>2.621535301208496</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0.0</v>
@@ -2535,56 +2535,56 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>46.132423400878906</v>
+        <v>42.17341995239258</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-37.29336929321289</v>
+        <v>-56.78670120239258</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1013.1268310546875</v>
+        <v>1019.81005859375</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>24.200000762939453</v>
+        <v>21.30046844482422</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>15.622910499572754</v>
+        <v>9.30788803100586</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 07:00:00</t>
+          <t>2022-05-03 14:00:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.17608818411827087</v>
+        <v>0.25166580080986023</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.2069694697856903</v>
+        <v>0.194466233253479</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2.441068410873413</v>
+        <v>2.357267379760742</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.6843912601470947</v>
+        <v>2.1364307403564453</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.654420852661133</v>
+        <v>2.6097021102905273</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0.0</v>
@@ -2593,56 +2593,56 @@
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>46.39906311035156</v>
+        <v>42.21602249145508</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-36.267173767089844</v>
+        <v>-56.29361343383789</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1013.4158325195312</v>
+        <v>1019.5247802734375</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>22.75029945373535</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>15.431721687316895</v>
+        <v>8.245899200439453</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 09:00:00</t>
+          <t>2022-05-03 15:00:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.23844705522060394</v>
+        <v>0.2703021168708801</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.2075793743133545</v>
+        <v>0.1947711855173111</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.468390464782715</v>
+        <v>2.3807873725891113</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.7073776721954346</v>
+        <v>2.0278053283691406</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.6601672172546387</v>
+        <v>2.4918134212493896</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0.0</v>
@@ -2651,56 +2651,56 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>46.6533203125</v>
+        <v>42.25666427612305</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-35.24419403076172</v>
+        <v>-55.80200958251953</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1013.7048950195312</v>
+        <v>1019.2125854492188</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>8.0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>22.000503540039062</v>
+        <v>21.55022621154785</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>16.991331100463867</v>
+        <v>9.33627986907959</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 11:00:00</t>
+          <t>2022-05-03 16:00:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.2365257740020752</v>
+        <v>0.29263579845428467</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.20818929374217987</v>
+        <v>0.1950761377811432</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.5701146125793457</v>
+        <v>2.3833000659942627</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.466017007827759</v>
+        <v>2.036105155944824</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>2.778062582015991</v>
+        <v>2.475778341293335</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0.0</v>
@@ -2709,56 +2709,56 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>46.891048431396484</v>
+        <v>42.295108795166016</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-34.24256134033203</v>
+        <v>-55.31104278564453</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1014.0715942382812</v>
+        <v>1018.9004516601562</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>23.399700164794922</v>
+        <v>21.500368118286133</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>19.175024032592773</v>
+        <v>12.24868392944336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 13:00:00</t>
+          <t>2022-05-03 17:00:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.18837736546993256</v>
+        <v>0.2882329225540161</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.20879919826984406</v>
+        <v>0.19538110494613647</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2.5707485675811768</v>
+        <v>2.532768487930298</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.4634084701538086</v>
+        <v>2.6579480171203613</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2.7972190380096436</v>
+        <v>2.3698174953460693</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0.0</v>
@@ -2767,56 +2767,56 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>47.12023162841797</v>
+        <v>42.33192443847656</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-33.230899810791016</v>
+        <v>-54.80677795410156</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1014.4765014648438</v>
+        <v>1018.5883178710938</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>22.300199508666992</v>
+        <v>22.233400344848633</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>18.12534523010254</v>
+        <v>12.275490760803223</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 15:00:00</t>
+          <t>2022-05-03 18:00:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.22590801119804382</v>
+        <v>0.28896427154541016</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.20940911769866943</v>
+        <v>0.19568605720996857</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2.5616960525512695</v>
+        <v>2.6114799976348877</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.4517436027526855</v>
+        <v>2.7344725131988525</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2.786097288131714</v>
+        <v>2.394604444503784</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0.0</v>
@@ -2825,56 +2825,56 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>47.34367752075195</v>
+        <v>42.367008209228516</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-32.19508743286133</v>
+        <v>-54.298118591308594</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1014.88134765625</v>
+        <v>1018.2761840820312</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.5</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>22.49909782409668</v>
+        <v>22.4502010345459</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>17.903278350830078</v>
+        <v>13.399999618530273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 17:00:00</t>
+          <t>2022-05-03 19:00:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.22586531937122345</v>
+        <v>0.28612223267555237</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.2100190371274948</v>
+        <v>0.19599100947380066</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.559040069580078</v>
+        <v>2.61993670463562</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.4407005310058594</v>
+        <v>2.7552332878112793</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2.7741260528564453</v>
+        <v>2.3987655639648438</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0.0</v>
@@ -2883,56 +2883,56 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>47.55370330810547</v>
+        <v>42.40006637573242</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-31.17022705078125</v>
+        <v>-53.788108825683594</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1015.2862548828125</v>
+        <v>1018.009033203125</v>
       </c>
       <c r="M48" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P48" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
-      <c r="N48" s="2" t="n">
-        <v>9.600000381469727</v>
-      </c>
-      <c r="O48" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="P48" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
       <c r="Q48" s="2" t="n">
-        <v>23.49959945678711</v>
+        <v>23.298194885253906</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>18.057815551757812</v>
+        <v>13.531707763671875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 19:00:00</t>
+          <t>2022-05-03 20:00:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.2549617886543274</v>
+        <v>0.25564444065093994</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.210628941655159</v>
+        <v>0.19629597663879395</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.4966766834259033</v>
+        <v>2.634514331817627</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.660801887512207</v>
+        <v>2.7533962726593018</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2.696043014526367</v>
+        <v>2.408724308013916</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0.0</v>
@@ -2941,56 +2941,56 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>47.759521484375</v>
+        <v>42.43050003051758</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-30.111572265625</v>
+        <v>-53.277565002441406</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1015.6911010742188</v>
+        <v>1018.087646484375</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.900601387023926</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.500600814819336</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>23.299999237060547</v>
+        <v>22.15045166015625</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>17.814556121826172</v>
+        <v>13.399999618530273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 21:00:00</t>
+          <t>2022-05-03 21:00:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.20261923968791962</v>
+        <v>0.29106536507606506</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.21123886108398438</v>
+        <v>0.19660092890262604</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.5050551891326904</v>
+        <v>2.6181833744049072</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.680051565170288</v>
+        <v>2.7406883239746094</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2.708740711212158</v>
+        <v>2.40169358253479</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0.0</v>
@@ -2999,56 +2999,56 @@
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>47.95533752441406</v>
+        <v>42.458560943603516</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-29.04630470275879</v>
+        <v>-52.770263671875</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1016.0960083007812</v>
+        <v>1018.1661987304688</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>22.899898529052734</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>17.542200088500977</v>
+        <v>13.153600692749023</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2022-05-05 23:00:00</t>
+          <t>2022-05-03 22:00:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.2438742220401764</v>
+        <v>0.311652809381485</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.21184878051280975</v>
+        <v>0.19690588116645813</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2.4820239543914795</v>
+        <v>2.581537961959839</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.6696958541870117</v>
+        <v>2.7032599449157715</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>2.6921777725219727</v>
+        <v>2.5923211574554443</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0.0</v>
@@ -3057,56 +3057,56 @@
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>48.14283752441406</v>
+        <v>42.48408126831055</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-27.961238861083984</v>
+        <v>-52.26842498779297</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1016.5008544921875</v>
+        <v>1018.2448120117188</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>21.79974937438965</v>
+        <v>22.366533279418945</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>17.2729434967041</v>
+        <v>13.112878799438477</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 01:00:00</t>
+          <t>2022-05-03 23:00:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.23860016465187073</v>
+        <v>0.23096971213817596</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.21245868504047394</v>
+        <v>0.19721083343029022</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2.450660228729248</v>
+        <v>2.552090644836426</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.6651155948638916</v>
+        <v>2.6826894283294678</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.663630723953247</v>
+        <v>2.594508647918701</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0.0</v>
@@ -3115,56 +3115,56 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>48.31905746459961</v>
+        <v>42.50792694091797</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-26.87494659423828</v>
+        <v>-51.75768280029297</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1016.90576171875</v>
+        <v>1018.3233642578125</v>
       </c>
       <c r="M52" s="2" t="n">
+        <v>8.600000381469727</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O52" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
-      <c r="N52" s="2" t="n">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="O52" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
       <c r="P52" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>22.300249099731445</v>
+        <v>22.366445541381836</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>16.390146255493164</v>
+        <v>12.006000518798828</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 03:00:00</t>
+          <t>2022-05-04 00:00:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.33762499690055847</v>
+        <v>0.2974195182323456</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.21306860446929932</v>
+        <v>0.1975158005952835</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2.43806791305542</v>
+        <v>2.5810513496398926</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.659299612045288</v>
+        <v>2.692551851272583</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2.655191421508789</v>
+        <v>2.587726354598999</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0.0</v>
@@ -3173,56 +3173,56 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>48.48527908325195</v>
+        <v>42.52936935424805</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-25.780778884887695</v>
+        <v>-51.24734878540039</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1017.3106689453125</v>
+        <v>1018.4019775390625</v>
       </c>
       <c r="M53" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O53" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
-      <c r="N53" s="2" t="n">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
       <c r="P53" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>23.199100494384766</v>
+        <v>22.400150299072266</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>17.621965408325195</v>
+        <v>9.815773010253906</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 05:00:00</t>
+          <t>2022-05-04 01:00:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.7811926007270813</v>
+        <v>0.30776625871658325</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.2136785238981247</v>
+        <v>0.1978207528591156</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.453615665435791</v>
+        <v>2.5279927253723145</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.6789567470550537</v>
+        <v>2.6192235946655273</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2.6380228996276855</v>
+        <v>2.5665407180786133</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0.0</v>
@@ -3231,56 +3231,56 @@
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>48.64402770996094</v>
+        <v>42.48951721191406</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-24.656579971313477</v>
+        <v>-50.74488067626953</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1017.7155151367188</v>
+        <v>1018.4805297851562</v>
       </c>
       <c r="M54" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P54" s="2" t="n">
         <v>9.600000381469727</v>
       </c>
-      <c r="N54" s="2" t="n">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="P54" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
       <c r="Q54" s="2" t="n">
-        <v>23.799999237060547</v>
+        <v>23.09986686706543</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>17.69746208190918</v>
+        <v>8.446647644042969</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 07:00:00</t>
+          <t>2022-05-04 02:00:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.7816317677497864</v>
+        <v>0.4437202215194702</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.21428842842578888</v>
+        <v>0.1981257051229477</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2.4606266021728516</v>
+        <v>2.471958637237549</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.694565534591675</v>
+        <v>2.6026670932769775</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.66326642036438</v>
+        <v>2.5645644664764404</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0.0</v>
@@ -3289,56 +3289,56 @@
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>48.78902816772461</v>
+        <v>42.34440231323242</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-23.548206329345703</v>
+        <v>-50.260032653808594</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1018.8163452148438</v>
+        <v>1018.5591430664062</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>22.4332218170166</v>
+        <v>21.866722106933594</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>18.109119415283203</v>
+        <v>6.868477821350098</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 09:00:00</t>
+          <t>2022-05-04 03:00:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.24290277063846588</v>
+        <v>0.2582629323005676</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.21489834785461426</v>
+        <v>0.19843067228794098</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.475545883178711</v>
+        <v>2.460742712020874</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>2.698855400085449</v>
+        <v>2.598764181137085</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2.675980567932129</v>
+        <v>2.5595502853393555</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0.0</v>
@@ -3347,56 +3347,56 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>48.92550277709961</v>
+        <v>42.25577926635742</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-22.41300392150879</v>
+        <v>-49.775814056396484</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1020.4998168945312</v>
+        <v>1018.4125366210938</v>
       </c>
       <c r="M56" s="2" t="n">
+        <v>8.700600624084473</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P56" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N56" s="2" t="n">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
       <c r="Q56" s="2" t="n">
-        <v>22.00083351135254</v>
+        <v>22.199600219726562</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>18.695587158203125</v>
+        <v>6.484447956085205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 11:00:00</t>
+          <t>2022-05-04 04:00:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.2853529751300812</v>
+        <v>0.4416411221027374</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.21550825238227844</v>
+        <v>0.19873562455177307</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2.4744977951049805</v>
+        <v>2.4868757724761963</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2.733593225479126</v>
+        <v>2.6134519577026367</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>2.6916210651397705</v>
+        <v>2.5699045658111572</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0.0</v>
@@ -3405,56 +3405,56 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>49.05180740356445</v>
+        <v>42.300025939941406</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-21.262439727783203</v>
+        <v>-49.27124786376953</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1022.1832885742188</v>
+        <v>1018.02197265625</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>9.5</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.0</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>22.65985679626465</v>
+        <v>22.100000381469727</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>18.895374298095703</v>
+        <v>6.426746845245361</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 13:00:00</t>
+          <t>2022-05-04 05:00:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.25807952880859375</v>
+        <v>0.44310250878334045</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.21611817181110382</v>
+        <v>0.19904057681560516</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.502930164337158</v>
+        <v>2.47928786277771</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>2.760746717453003</v>
+        <v>2.6101067066192627</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>2.7182493209838867</v>
+        <v>2.5666821002960205</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0.0</v>
@@ -3463,56 +3463,56 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>49.16392517089844</v>
+        <v>42.344783782958984</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-20.134347915649414</v>
+        <v>-48.760440826416016</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1023.86669921875</v>
+        <v>1017.6314086914062</v>
       </c>
       <c r="M58" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P58" s="2" t="n">
         <v>9.699999809265137</v>
       </c>
-      <c r="N58" s="2" t="n">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
       <c r="Q58" s="2" t="n">
-        <v>22.54005241394043</v>
+        <v>22.999866485595703</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>19.767866134643555</v>
+        <v>6.634466648101807</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 15:00:00</t>
+          <t>2022-05-04 06:00:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.2279137521982193</v>
+        <v>0.4151833653450012</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.2167280912399292</v>
+        <v>0.19934554398059845</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.464519739151001</v>
+        <v>2.4756813049316406</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>2.7166669368743896</v>
+        <v>2.5939583778381348</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>2.6752519607543945</v>
+        <v>2.554166078567505</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0.0</v>
@@ -3521,56 +3521,56 @@
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>49.263282775878906</v>
+        <v>42.48160934448242</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-19.020103454589844</v>
+        <v>-48.28282928466797</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1024.7000732421875</v>
+        <v>1017.2409057617188</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.5</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>21.93328857421875</v>
+        <v>21.700000762939453</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>19.4804744720459</v>
+        <v>7.3047194480896</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 17:00:00</t>
+          <t>2022-05-04 07:00:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.3955175280570984</v>
+        <v>0.2839619815349579</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.21733799576759338</v>
+        <v>0.19965049624443054</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.010847806930542</v>
+        <v>2.4788284301757812</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.205760955810547</v>
+        <v>2.6151950359344482</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2.1513254642486572</v>
+        <v>2.558011293411255</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0.0</v>
@@ -3579,56 +3579,56 @@
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>49.35075759887695</v>
+        <v>42.666934967041016</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-17.917993545532227</v>
+        <v>-47.82047653198242</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1025.4603271484375</v>
+        <v>1016.850341796875</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>7.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>7.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>6.900000095367432</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>19.299699783325195</v>
+        <v>23.466598510742188</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>20.221431732177734</v>
+        <v>7.389551162719727</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 19:00:00</t>
+          <t>2022-05-04 08:00:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.2563117444515228</v>
+        <v>0.289369136095047</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.21794791519641876</v>
+        <v>0.19995544850826263</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.4315543174743652</v>
+        <v>2.49798583984375</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.694124221801758</v>
+        <v>2.6313791275024414</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>2.6583547592163086</v>
+        <v>2.5986526012420654</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0.0</v>
@@ -3637,56 +3637,56 @@
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>49.42963790893555</v>
+        <v>42.851051330566406</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-16.78098487854004</v>
+        <v>-47.352237701416016</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1026.2205810546875</v>
+        <v>1016.4597778320312</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>23.499534606933594</v>
+        <v>24.19985008239746</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>18.043357849121094</v>
+        <v>7.223907947540283</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 21:00:00</t>
+          <t>2022-05-04 09:00:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.47352707386016846</v>
+        <v>0.27114787697792053</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.21855783462524414</v>
+        <v>0.20026041567325592</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2.4090123176574707</v>
+        <v>2.5057215690612793</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>2.6874403953552246</v>
+        <v>2.6470062732696533</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>2.6599955558776855</v>
+        <v>2.5855319499969482</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0.0</v>
@@ -3695,56 +3695,56 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>49.49773025512695</v>
+        <v>43.02732849121094</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-15.63573932647705</v>
+        <v>-46.89806365966797</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1026.9808349609375</v>
+        <v>1016.0692749023438</v>
       </c>
       <c r="M62" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="P62" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N62" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>8.90000057220459</v>
-      </c>
-      <c r="P62" s="2" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Q62" s="2" t="n">
-        <v>23.20013427734375</v>
+        <v>23.432931900024414</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>17.736753463745117</v>
+        <v>8.192798614501953</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2022-05-06 23:00:00</t>
+          <t>2022-05-04 10:00:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.2655184268951416</v>
+        <v>0.378186970949173</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.21916773915290833</v>
+        <v>0.200565367937088</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.39646315574646</v>
+        <v>2.5693838596343994</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.648977041244507</v>
+        <v>2.728050947189331</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2.5952911376953125</v>
+        <v>2.671154022216797</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0.0</v>
@@ -3753,56 +3753,56 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>49.55355453491211</v>
+        <v>43.197689056396484</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-14.504441261291504</v>
+        <v>-46.451351165771484</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1026.9678955078125</v>
+        <v>1015.6787109375</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>10.0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>23.5798397064209</v>
+        <v>21.700450897216797</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>17.43014907836914</v>
+        <v>9.143706321716309</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 01:00:00</t>
+          <t>2022-05-04 11:00:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.22069919109344482</v>
+        <v>0.39280831813812256</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.2197776585817337</v>
+        <v>0.2008703202009201</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2.4054462909698486</v>
+        <v>2.5554287433624268</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.6513383388519287</v>
+        <v>2.7123005390167236</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>2.6346662044525146</v>
+        <v>2.6689419746398926</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0.0</v>
@@ -3811,56 +3811,56 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>49.598609924316406</v>
+        <v>43.37285232543945</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-13.367568969726562</v>
+        <v>-45.98477554321289</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1026.9349365234375</v>
+        <v>1015.2881469726562</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>9.0</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>22.399599075317383</v>
+        <v>24.09819984436035</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>17.065105438232422</v>
+        <v>11.486124992370605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 03:00:00</t>
+          <t>2022-05-04 12:00:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.2165946066379547</v>
+        <v>0.5392224788665771</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.2203875631093979</v>
+        <v>0.2011752873659134</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2.379539966583252</v>
+        <v>2.6120476722717285</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>2.6396431922912598</v>
+        <v>2.760795831680298</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>2.6012253761291504</v>
+        <v>2.715803384780884</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0.0</v>
@@ -3869,56 +3869,56 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>49.632713317871094</v>
+        <v>43.54866409301758</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-12.199243545532227</v>
+        <v>-45.508766174316406</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1026.9019775390625</v>
+        <v>1014.8976440429688</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>23.100200653076172</v>
+        <v>21.500301361083984</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>16.58931541442871</v>
+        <v>11.485061645507812</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 05:00:00</t>
+          <t>2022-05-04 13:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.2576395571231842</v>
+        <v>0.3744235038757324</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.22099748253822327</v>
+        <v>0.20148023962974548</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2.4032392501831055</v>
+        <v>2.576929807662964</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.6341428756713867</v>
+        <v>2.7815492153167725</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>2.6289525032043457</v>
+        <v>2.7424917221069336</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0.0</v>
@@ -3927,56 +3927,56 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>49.65205764770508</v>
+        <v>43.72050094604492</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-11.036766052246094</v>
+        <v>-45.03491973876953</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1026.869140625</v>
+        <v>1014.507080078125</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>22.899999618530273</v>
+        <v>22.399198532104492</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>16.784496307373047</v>
+        <v>10.760967254638672</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 07:00:00</t>
+          <t>2022-05-04 14:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.26372548937797546</v>
+        <v>0.34862515330314636</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.22160740196704865</v>
+        <v>0.20178519189357758</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.4223921298980713</v>
+        <v>2.4540600776672363</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.6554417610168457</v>
+        <v>2.8165595531463623</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>2.648923635482788</v>
+        <v>2.740915060043335</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>0.0</v>
@@ -3985,56 +3985,56 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>49.66626739501953</v>
+        <v>43.890769958496094</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-9.870960235595703</v>
+        <v>-44.557804107666016</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1026.836181640625</v>
+        <v>1014.1165161132812</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>9.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>23.400402069091797</v>
+        <v>21.79939842224121</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>17.181438446044922</v>
+        <v>12.248279571533203</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 09:00:00</t>
+          <t>2022-05-04 15:00:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.558332085609436</v>
+        <v>0.27469560503959656</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.22221730649471283</v>
+        <v>0.20209015905857086</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5685086250305176</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.472944974899292</v>
+        <v>2.7704665660858154</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>2.403895854949951</v>
+        <v>2.7370922565460205</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>0.0</v>
@@ -4043,56 +4043,56 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.66618728637695</v>
+        <v>44.05655288696289</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-8.83090877532959</v>
+        <v>-44.084495544433594</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1026.80322265625</v>
+        <v>1013.7260131835938</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>6.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>5.700000286102295</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>20.899866104125977</v>
+        <v>22.998796463012695</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>17.109529495239258</v>
+        <v>11.54432487487793</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 11:00:00</t>
+          <t>2022-05-04 16:00:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.4305427670478821</v>
+        <v>0.26505470275878906</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.2228272259235382</v>
+        <v>0.20239511132240295</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4517858028411865</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.6100780963897705</v>
+        <v>2.7375717163085938</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>2.571369171142578</v>
+        <v>2.6826162338256836</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>0.0</v>
@@ -4101,56 +4101,56 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.65768051147461</v>
+        <v>44.2200927734375</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-7.804713249206543</v>
+        <v>-43.60942459106445</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1026.770263671875</v>
+        <v>1013.33544921875</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>6.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.0</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.0</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>20.150100708007812</v>
+        <v>22.29939842224121</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>18.074260711669922</v>
+        <v>13.28972339630127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 13:00:00</t>
+          <t>2022-05-04 17:00:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.5441455245018005</v>
+        <v>0.2830199897289276</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.2234371453523636</v>
+        <v>0.20270006358623505</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>0.0</v>
+        <v>2.502638101577759</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.6426098346710205</v>
+        <v>2.6994516849517822</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>2.607250928878784</v>
+        <v>2.679429769515991</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0.0</v>
@@ -4159,56 +4159,56 @@
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.632137298583984</v>
+        <v>44.38134002685547</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-6.794060230255127</v>
+        <v>-43.133365631103516</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1026.7373046875</v>
+        <v>1012.9448852539062</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>6.5</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>20.37508773803711</v>
+        <v>22.799999237060547</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>17.980443954467773</v>
+        <v>13.761133193969727</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 15:00:00</t>
+          <t>2022-05-04 18:00:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.5969343185424805</v>
+        <v>0.34589213132858276</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.22404704988002777</v>
+        <v>0.20300501585006714</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5231354236602783</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.538337230682373</v>
+        <v>2.7073683738708496</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>2.5459814071655273</v>
+        <v>2.6644341945648193</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>0.0</v>
@@ -4217,56 +4217,56 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.66568374633789</v>
+        <v>44.54114532470703</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-5.789966106414795</v>
+        <v>-42.65229415893555</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1026.7044677734375</v>
+        <v>1012.5543823242188</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>19.400266647338867</v>
+        <v>23.600000381469727</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>15.100000381469727</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 17:00:00</t>
+          <t>2022-05-04 19:00:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.2365151047706604</v>
+        <v>0.2916926145553589</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.22465696930885315</v>
+        <v>0.20330998301506042</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2.382641315460205</v>
+        <v>2.5270352363586426</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>2.3924567699432373</v>
+        <v>2.7252323627471924</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>2.4325926303863525</v>
+        <v>2.676776647567749</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>0.0</v>
@@ -4275,56 +4275,56 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>49.745670318603516</v>
+        <v>44.69437789916992</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-4.7838215827941895</v>
+        <v>-42.182395935058594</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1026.498779296875</v>
+        <v>1012.163818359375</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>5.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>19.579639434814453</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>18.98374366760254</v>
+        <v>15.76998233795166</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 19:00:00</t>
+          <t>2022-05-04 20:00:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.20614629983901978</v>
+        <v>0.25240612030029297</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.22526688873767853</v>
+        <v>0.20361493527889252</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2.3500256538391113</v>
+        <v>2.5213639736175537</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>2.350590467453003</v>
+        <v>2.729583740234375</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>2.3978207111358643</v>
+        <v>2.705273151397705</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>0.0</v>
@@ -4333,56 +4333,56 @@
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>49.9091796875</v>
+        <v>44.844547271728516</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-3.8004751205444336</v>
+        <v>-41.71399688720703</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1026.266845703125</v>
+        <v>1012.0587158203125</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>5.700000286102295</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>5.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>5.5</v>
+        <v>9.0</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>20.900400161743164</v>
+        <v>22.600000381469727</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>19.806062698364258</v>
+        <v>14.19434642791748</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 21:00:00</t>
+          <t>2022-05-04 21:00:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.2494421750307083</v>
+        <v>0.254498153924942</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.2258767932653427</v>
+        <v>0.2039198875427246</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2.388975143432617</v>
+        <v>2.5248863697052</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>2.3776285648345947</v>
+        <v>2.739816427230835</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>2.4366955757141113</v>
+        <v>2.6985087394714355</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>0.0</v>
@@ -4391,56 +4391,56 @@
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.19092559814453</v>
+        <v>44.994205474853516</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-2.8790013790130615</v>
+        <v>-41.23856735229492</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1026.034912109375</v>
+        <v>1012.1597900390625</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>5.700000286102295</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>5.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>19.249849319458008</v>
+        <v>22.80037498474121</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>17.521512985229492</v>
+        <v>14.766003608703613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2022-05-07 23:00:00</t>
+          <t>2022-05-04 22:00:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.4306652545928955</v>
+        <v>0.26553380489349365</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.2264867126941681</v>
+        <v>0.2042248547077179</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1.6048617362976074</v>
+        <v>2.5255286693573</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1.661850094795227</v>
+        <v>2.7306771278381348</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>1.6237088441848755</v>
+        <v>2.703319549560547</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>0.0</v>
@@ -4449,56 +4449,56 @@
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.33740234375</v>
+        <v>45.14322280883789</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.901546835899353</v>
+        <v>-40.756126403808594</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1026.2198486328125</v>
+        <v>1012.2608642578125</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>3.200000047683716</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>3.299999952316284</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>3.200000047683716</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>3.299999952316284</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>16.700000762939453</v>
+        <v>23.0</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>17.134180068969727</v>
+        <v>13.863155364990234</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2022-05-08 01:00:00</t>
+          <t>2022-05-04 23:00:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.35892972350120544</v>
+        <v>0.37400931119918823</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.22709661722183228</v>
+        <v>0.20452980697155</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1.6195238828659058</v>
+        <v>2.5130887031555176</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1.6773629188537598</v>
+        <v>2.719372034072876</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.24123810231685638</v>
+        <v>2.679243564605713</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>0.0</v>
@@ -4507,146 +4507,4554 @@
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.47319412231445</v>
+        <v>45.29658126831055</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-1.0264331102371216</v>
+        <v>-40.25096130371094</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1026.4786376953125</v>
+        <v>1012.3619384765625</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>1.8000000715255737</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>1.8000000715255737</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>1.7000000476837158</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>12.242830276489258</v>
+        <v>22.100601196289062</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>15.061853408813477</v>
+        <v>13.600000381469727</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2022-05-08 03:00:00</t>
+          <t>2022-05-05 00:00:00</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.04056300222873688</v>
+        <v>0.2897447347640991</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.22770653665065765</v>
+        <v>0.20483475923538208</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1.6563000679016113</v>
+        <v>2.494058132171631</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1.6854811906814575</v>
+        <v>2.7130649089813232</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6772093772888184</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>3.7536001205444336</v>
+        <v>0.0</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>50.76266098022461</v>
+        <v>45.44480895996094</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>-1.17393958568573</v>
+        <v>-39.7508544921875</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>1026.7374267578125</v>
+        <v>1012.4630737304688</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>4.599999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>4.700000286102295</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>4.700000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>4.800000190734863</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>18.837371826171875</v>
+        <v>22.801498413085938</v>
       </c>
       <c r="R77" s="2" t="n">
-        <v>14.941615104675293</v>
+        <v>14.428329467773438</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
+          <t>2022-05-05 01:00:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.26986610889434814</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.20513972640037537</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>2.4563329219818115</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.700307607650757</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>2.654604911804199</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>45.58806228637695</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-39.25931930541992</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1012.5641479492188</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>23.199932098388672</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>15.899999618530273</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 02:00:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.18060128390789032</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.20544467866420746</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>2.4445931911468506</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.6850409507751465</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>2.650519609451294</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>45.72957229614258</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-38.763389587402344</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1012.6932373046875</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>23.640064239501953</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>15.198759078979492</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.17560908198356628</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.20574963092803955</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>2.4407896995544434</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.686856746673584</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2.650132894515991</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>45.865787506103516</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-38.275882720947266</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1012.8377685546875</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>23.33355712890625</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>16.04886817932129</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.20952267944812775</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.20605459809303284</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>2.450528383255005</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.6975669860839844</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>2.6672797203063965</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>46.00053024291992</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-37.78412628173828</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1012.9822998046875</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>22.799999237060547</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>15.300000190734863</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.26635757088661194</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.20635955035686493</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>2.4316508769989014</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.67383074760437</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2.638711452484131</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>46.132423400878906</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-37.29336929321289</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1013.1268310546875</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>24.200000762939453</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>15.622910499572754</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.35280147194862366</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.20666450262069702</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>2.423649787902832</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.6765356063842773</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.6463842391967773</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>46.265438079833984</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-36.78688049316406</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1013.2713012695312</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>23.299774169921875</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>15.798962593078613</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.17608818411827087</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.2069694697856903</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>2.441068410873413</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.6843912601470947</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>2.654420852661133</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>46.39906311035156</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-36.267173767089844</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1013.4158325195312</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>22.75029945373535</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>15.431721687316895</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.17823629081249237</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.2072744220495224</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>2.4601950645446777</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.6908154487609863</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>2.664315700531006</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>46.52920913696289</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-35.74844741821289</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1013.5603637695312</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>23.799999237060547</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>15.733710289001465</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.23844705522060394</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.2075793743133545</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>2.468390464782715</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.7073776721954346</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.6601672172546387</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>46.6533203125</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-35.24419403076172</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1013.7048950195312</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>22.000503540039062</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>16.991331100463867</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.21553002297878265</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.20788434147834778</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>2.465623617172241</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.7072839736938477</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>2.7004411220550537</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>46.772972106933594</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-34.7454719543457</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1013.869140625</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>23.600000381469727</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>18.100000381469727</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.2365257740020752</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.20818929374217987</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2.5701146125793457</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.466017007827759</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>2.778062582015991</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>46.891048431396484</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-34.24256134033203</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1014.0715942382812</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>23.399700164794922</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>19.175024032592773</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 12:00:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.25876057147979736</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.20849424600601196</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>2.5651400089263916</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.4665770530700684</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>2.7948379516601562</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>47.007713317871094</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-33.73310852050781</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1014.2740478515625</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>22.999399185180664</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>17.722253799438477</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 13:00:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.18837736546993256</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.20879919826984406</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>2.5707485675811768</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.4634084701538086</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>2.7972190380096436</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>47.12023162841797</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-33.230899810791016</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1014.4765014648438</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>22.300199508666992</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>18.12534523010254</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.21793144941329956</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.20910416543483734</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>2.5651001930236816</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.456310749053955</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.791071891784668</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>47.23228454589844</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-32.7176513671875</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1014.6788940429688</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>18.102603912353516</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.22590801119804382</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.20940911769866943</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>2.5616960525512695</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.4517436027526855</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>2.786097288131714</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>47.34367752075195</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-32.19508743286133</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1014.88134765625</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>22.49909782409668</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>17.903278350830078</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.23451989889144897</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.20971406996250153</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>2.536452293395996</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.4266974925994873</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>2.7374517917633057</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>47.450374603271484</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-31.681364059448242</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1015.0838012695312</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>23.86663246154785</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>17.980546951293945</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 17:00:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.22586531937122345</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.2100190371274948</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>2.559040069580078</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.4407005310058594</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.7741260528564453</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>47.55370330810547</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-31.17022705078125</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1015.2862548828125</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>23.49959945678711</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>18.057815551757812</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.2273506075143814</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.2103239893913269</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2.5000433921813965</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.6695735454559326</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>2.7012345790863037</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>47.65835952758789</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-30.639432907104492</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1015.4887084960938</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>23.799100875854492</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>18.100000381469727</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 19:00:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.2549617886543274</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.210628941655159</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2.4966766834259033</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.660801887512207</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>2.696043014526367</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>47.759521484375</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-30.111572265625</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1015.6911010742188</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>23.299999237060547</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>17.814556121826172</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 20:00:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.2902875244617462</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.21093390882015228</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>2.502346992492676</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.6751623153686523</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2.7062740325927734</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>47.85852813720703</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-29.580307006835938</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1015.8935546875</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>22.30186653137207</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>17.82573890686035</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 21:00:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.20261923968791962</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.21123886108398438</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2.5050551891326904</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.680051565170288</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>2.708740711212158</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>47.95533752441406</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-29.04630470275879</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1016.0960083007812</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>22.899898529052734</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>17.542200088500977</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 22:00:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.26536667346954346</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.21154381334781647</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2.5128352642059326</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.696155309677124</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>2.70111346244812</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>48.050357818603516</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-28.505359649658203</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1016.2984619140625</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>22.798948287963867</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>17.40757179260254</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-05 23:00:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.2438742220401764</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.21184878051280975</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2.4820239543914795</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.6696958541870117</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>2.6921777725219727</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>48.14283752441406</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-27.961238861083984</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1016.5008544921875</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>21.79974937438965</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>17.2729434967041</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.2506566345691681</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.21215373277664185</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2.4508249759674072</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.6456120014190674</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2.6724178791046143</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>48.23225784301758</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-27.419132232666016</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1016.7033081054688</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>23.10004997253418</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>17.144941329956055</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 01:00:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.23860016465187073</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.21245868504047394</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2.450660228729248</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.6651155948638916</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>2.663630723953247</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>48.31905746459961</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-26.87494659423828</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1016.90576171875</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>22.300249099731445</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>16.390146255493164</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 02:00:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.610281229019165</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.21276365220546722</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2.453766107559204</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.6650936603546143</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>2.658831834793091</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>48.402732849121094</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-26.334028244018555</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1017.1082153320312</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>22.06671142578125</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>16.761476516723633</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 03:00:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.33762499690055847</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.21306860446929932</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2.43806791305542</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.659299612045288</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>2.655191421508789</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>48.48527908325195</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-25.780778884887695</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1017.3106689453125</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>23.199100494384766</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>17.621965408325195</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 04:00:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.4964944124221802</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.2133735567331314</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2.4320240020751953</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.6665995121002197</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>2.6336567401885986</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>48.56697463989258</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-25.21335792541504</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1017.5130615234375</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>23.29939842224121</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>17.659713745117188</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 05:00:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.7811926007270813</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.2136785238981247</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2.453615665435791</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.6789567470550537</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>2.6380228996276855</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>48.64402770996094</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-24.656579971313477</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1017.7155151367188</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>23.799999237060547</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>17.69746208190918</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 06:00:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.7827984690666199</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.2139834761619568</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2.4611735343933105</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.686508893966675</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>2.657743453979492</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>48.71764373779297</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-24.104198455810547</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1017.974609375</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>23.699800491333008</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>17.78655433654785</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 07:00:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.7816317677497864</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.21428842842578888</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2.4606266021728516</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.694565534591675</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>2.66326642036438</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>48.78902816772461</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-23.548206329345703</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1018.8163452148438</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>22.4332218170166</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>18.109119415283203</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.7817084789276123</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.21459338068962097</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>2.474994421005249</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>2.7033042907714844</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>2.6721272468566895</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>48.857845306396484</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-22.987642288208008</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1019.6580810546875</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>22.460540771484375</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>18.110151290893555</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 09:00:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.24290277063846588</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.21489834785461426</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>2.475545883178711</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>2.698855400085449</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>2.675980567932129</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>48.92550277709961</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-22.41300392150879</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1020.4998168945312</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>22.00083351135254</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>18.695587158203125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 10:00:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.3196675479412079</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.21520330011844635</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2.512801170349121</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>2.737788677215576</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>2.7133781909942627</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>48.99042892456055</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-21.834012985229492</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1021.341552734375</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>22.599533081054688</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>19.07444190979004</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 11:00:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.2853529751300812</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.21550825238227844</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>2.4744977951049805</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>2.733593225479126</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>2.6916210651397705</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>49.05180740356445</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-21.262439727783203</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1022.1832885742188</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>22.65985679626465</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>18.895374298095703</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.3259643018245697</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.21581321954727173</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>2.4571616649627686</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>2.715593099594116</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>2.678861379623413</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>49.10946273803711</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-20.6959171295166</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1023.0250244140625</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>22.700000762939453</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>19.717599868774414</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 13:00:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.25807952880859375</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.21611817181110382</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2.502930164337158</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>2.760746717453003</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>2.7182493209838867</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>49.16392517089844</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-20.134347915649414</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1023.86669921875</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>22.54005241394043</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>19.767866134643555</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 14:00:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.26576706767082214</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.2164231240749359</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>2.4964261054992676</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>2.753338575363159</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>2.7022974491119385</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>49.21492385864258</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-19.578439712524414</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1024.3199462890625</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>9.699999809265137</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>21.90045166015625</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>19.899999618530273</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.2279137521982193</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.2167280912399292</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2.464519739151001</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>2.7166669368743896</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>2.6752519607543945</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>49.263282775878906</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-19.020103454589844</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1024.7000732421875</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>21.93328857421875</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>19.4804744720459</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 16:00:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.24674655497074127</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.2170330435037613</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2.4580061435699463</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>2.715688705444336</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>2.6741085052490234</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>49.30979919433594</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-18.452592849731445</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1025.0802001953125</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>24.320253372192383</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>20.05805206298828</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.3955175280570984</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.21733799576759338</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2.010847806930542</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>2.205760955810547</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>2.1513254642486572</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>49.35075759887695</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-17.917993545532227</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1025.4603271484375</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>19.299699783325195</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>20.221431732177734</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 18:00:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.24030783772468567</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.21764296293258667</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>2.4008753299713135</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.6680691242218018</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>2.632286310195923</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>49.39134216308594</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-17.3538875579834</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1025.8404541015625</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>22.299848556518555</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>18.559001922607422</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 19:00:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.2563117444515228</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.21794791519641876</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2.4315543174743652</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.694124221801758</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>2.6583547592163086</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>49.42963790893555</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-16.78098487854004</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1026.2205810546875</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>23.499534606933594</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>18.043357849121094</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 20:00:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.24469414353370667</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.21825286746025085</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>2.4456253051757812</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>2.706157922744751</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>2.6822075843811035</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>49.46521759033203</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-16.206645965576172</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1026.6007080078125</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>22.99992561340332</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>17.89005470275879</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 21:00:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.47352707386016846</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.21855783462524414</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2.4090123176574707</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>2.6874403953552246</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>2.6599955558776855</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>49.49773025512695</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-15.63573932647705</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1026.9808349609375</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>23.20013427734375</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>17.736753463745117</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 22:00:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.25818192958831787</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.21886278688907623</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2.446169853210449</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>2.661174774169922</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>2.6469357013702393</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>49.52702713012695</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-15.070634841918945</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1026.984375</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>23.600000381469727</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>17.583452224731445</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-06 23:00:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.2655184268951416</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.21916773915290833</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2.39646315574646</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.648977041244507</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>2.5952911376953125</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>49.55355453491211</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-14.504441261291504</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1026.9678955078125</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>23.5798397064209</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>17.43014907836914</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.2540874779224396</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.2194727063179016</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2.434462785720825</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.656125783920288</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>2.6432740688323975</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>49.57762908935547</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-13.933197975158691</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1026.951416015625</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>23.440143585205078</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>17.27684783935547</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 01:00:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.22069919109344482</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.2197776585817337</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2.4054462909698486</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.6513383388519287</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>2.6346662044525146</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>49.598609924316406</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-13.367568969726562</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1026.9349365234375</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>22.399599075317383</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>17.065105438232422</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 02:00:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.21449807286262512</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.2200826108455658</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2.4026169776916504</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.648566246032715</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>2.649766445159912</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>49.61697769165039</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-12.785888671875</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1026.91845703125</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>23.099699020385742</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>16.795894622802734</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 03:00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.2165946066379547</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.2203875631093979</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>2.379539966583252</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2.6396431922912598</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>2.6012253761291504</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>49.632713317871094</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-12.199243545532227</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1026.9019775390625</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>23.100200653076172</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>16.58931541442871</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 04:00:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.19192612171173096</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.22069253027439117</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2.388983964920044</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.6069250106811523</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>2.5915310382843018</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>49.64579391479492</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-11.613724708557129</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1026.8856201171875</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>23.55016326904297</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>16.501667022705078</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 05:00:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.2576395571231842</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.22099748253822327</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2.4032392501831055</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.6341428756713867</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>2.6289525032043457</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>49.65205764770508</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-11.036766052246094</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1026.869140625</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>22.899999618530273</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>16.784496307373047</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.22033078968524933</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.22130243480205536</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2.3969459533691406</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.633199453353882</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>2.6239383220672607</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>49.66231155395508</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-10.456038475036621</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1026.8526611328125</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>23.90020179748535</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>17.486602783203125</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.26372548937797546</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.22160740196704865</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>2.4223921298980713</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.6554417610168457</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>2.648923635482788</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>49.66626739501953</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-9.870960235595703</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1026.836181640625</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>8.90000057220459</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>23.400402069091797</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>17.181438446044922</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.7825068831443787</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.22191235423088074</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.047532558441162</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>2.0127973556518555</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.66722869873047</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-9.322022438049316</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1026.8197021484375</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>4.099999904632568</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>4.400000095367432</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>16.99919891357422</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>16.899999618530273</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 09:00:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.558332085609436</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.22221730649471283</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.472944974899292</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>2.403895854949951</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.66618728637695</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-8.83090877532959</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1026.80322265625</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>20.899866104125977</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>17.109529495239258</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 10:00:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.5057033896446228</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.22252227365970612</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.6418228149414062</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>2.6242239475250244</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.674495697021484</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-8.316431999206543</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1026.7867431640625</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>20.466890335083008</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>17.05290412902832</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 11:00:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.4305427670478821</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.2228272259235382</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>2.6100780963897705</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>2.571369171142578</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.65768051147461</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-7.804713249206543</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1026.770263671875</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>20.150100708007812</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>18.074260711669922</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 12:00:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.49984392523765564</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.2231321781873703</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>2.6507132053375244</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>2.613274097442627</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.64863967895508</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-7.297421455383301</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1026.7537841796875</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>20.69973373413086</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>19.065088272094727</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 13:00:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.5441455245018005</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.2234371453523636</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.6426098346710205</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>2.607250928878784</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.632137298583984</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-6.794060230255127</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1026.7373046875</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>20.37508773803711</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>17.980443954467773</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.4732521176338196</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.22374209761619568</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.5839102268218994</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>2.5510199069976807</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.64616012573242</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-6.295156002044678</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1026.720947265625</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>20.15090560913086</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>17.299999237060547</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 15:00:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.5969343185424805</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.22404704988002777</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.538337230682373</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>2.5459814071655273</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.66568374633789</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-5.789966106414795</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1026.7044677734375</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>19.400266647338867</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>15.100000381469727</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 16:00:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.4885205030441284</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.22435201704502106</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>2.35443115234375</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>2.4208831787109375</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.691715240478516</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-5.279781341552734</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1026.61474609375</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>19.471132278442383</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>15.702621459960938</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 17:00:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.2365151047706604</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.22465696930885315</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2.382641315460205</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2.3924567699432373</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>2.4325926303863525</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>49.745670318603516</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-4.7838215827941895</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1026.498779296875</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>19.579639434814453</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>18.98374366760254</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 18:00:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.28445759415626526</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.22496192157268524</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2.372255325317383</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>2.3818798065185547</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>2.430037021636963</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>49.84749984741211</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-4.300034046173096</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1026.3828125</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>20.30120086669922</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>19.08400535583496</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 19:00:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.20614629983901978</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.22526688873767853</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>2.3500256538391113</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>2.350590467453003</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>2.3978207111358643</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>49.9091796875</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-3.8004751205444336</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1026.266845703125</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>20.900400161743164</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>19.806062698364258</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 20:00:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.27396807074546814</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.22557184100151062</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2.341562032699585</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>2.3412890434265137</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>2.406006097793579</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.06218338012695</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-3.3502984046936035</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1026.15087890625</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>19.375011444091797</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>16.50689125061035</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 21:00:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.2494421750307083</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.2258767932653427</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>2.388975143432617</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>2.3776285648345947</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>2.4366955757141113</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.19092559814453</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-2.8790013790130615</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1026.034912109375</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>19.249849319458008</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>17.521512985229492</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 22:00:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.2894088923931122</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.2261817455291748</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>2.3587288856506348</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>2.3473715782165527</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>2.4181735515594482</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.27481460571289</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-2.3700411319732666</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1026.0904541015625</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>20.433151245117188</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>17.975372314453125</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-07 23:00:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.4306652545928955</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.2264867126941681</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1.6048617362976074</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>1.661850094795227</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>1.6237088441848755</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.33740234375</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.901546835899353</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1026.2198486328125</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>16.700000762939453</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>17.134180068969727</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.467854768037796</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.22679166495800018</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>1.605776071548462</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>1.6424390077590942</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>1.605461835861206</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.39998245239258</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.4480128288269043</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1026.3492431640625</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>16.00080108642578</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>15.681352615356445</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-08 01:00:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.35892972350120544</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.22709661722183228</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1.6195238828659058</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>1.6773629188537598</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0.24123810231685638</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.47319412231445</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-1.0264331102371216</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1026.4786376953125</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>1.8000000715255737</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>1.8000000715255737</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>12.242830276489258</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>15.061853408813477</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.3088512420654297</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.22740158438682556</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>0.7976981997489929</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>0.8411527276039124</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>2.244000196456909</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.630516052246094</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-0.9364660978317261</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1026.6080322265625</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>0.9000000357627869</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.9000000357627869</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>0.9000000357627869</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>15.169696807861328</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-08 03:00:00</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.04056300222873688</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.22770653665065765</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1.6563000679016113</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>1.6854811906814575</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>3.7536001205444336</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>50.76266098022461</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>-1.17393958568573</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>1026.7374267578125</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>4.700000286102295</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>18.837371826171875</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>14.941615104675293</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2022-05-08 04:00:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.10953716188669205</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.22801148891448975</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>0.7490496039390564</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>0.785780668258667</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>2.2083001136779785</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.86255645751953</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.363764762878418</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1026.8668212890625</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>9.624894142150879</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>13.470559120178223</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
           <t>2022-05-08 05:00:00</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B154" s="2" t="n">
         <v>0.17851132154464722</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C154" s="2" t="n">
         <v>0.22831645607948303</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E78" s="2" t="n">
+      <c r="D154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" s="2" t="n">
         <v>0.7279690504074097</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F154" s="2" t="n">
         <v>0.7565341591835022</v>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H78" s="2" t="n">
+      <c r="G154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H154" s="2" t="n">
         <v>2.1675000190734863</v>
       </c>
-      <c r="I78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="2" t="n">
+      <c r="I154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="2" t="n">
         <v>50.904361724853516</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K154" s="2" t="n">
         <v>-1.430036187171936</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L154" s="2" t="n">
         <v>1026.9962158203125</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="2" t="n">
+      <c r="M154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="2" t="n">
         <v>0.6000000238418579</v>
       </c>
-      <c r="P78" s="2" t="n">
+      <c r="P154" s="2" t="n">
         <v>0.800000011920929</v>
       </c>
-      <c r="Q78" s="2" t="n">
+      <c r="Q154" s="2" t="n">
         <v>1.1615817546844482</v>
       </c>
-      <c r="R78" s="2" t="n">
+      <c r="R154" s="2" t="n">
         <v>14.541397094726562</v>
       </c>
     </row>
